--- a/Automação - Projeto Propriedade Rural/Propriedade Rural/dados_animais.xlsx
+++ b/Automação - Projeto Propriedade Rural/Propriedade Rural/dados_animais.xlsx
@@ -1,73 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\OneDrive\Documentos\Projetos Python\Propriedade Rural\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D93907-BB01-43C2-AC61-1BC16DEB33F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
-  <si>
-    <t>Número do Brinco</t>
-  </si>
-  <si>
-    <t>Peso</t>
-  </si>
-  <si>
-    <t>Data de Entrada</t>
-  </si>
-  <si>
-    <t>Número do Piquet</t>
-  </si>
-  <si>
-    <t>Preço Ração (Kg)</t>
-  </si>
-  <si>
-    <t>Preço Silo (Kg)</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>04/07/2024</t>
-  </si>
-  <si>
-    <t>02/07/2024</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -86,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -388,116 +407,95 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="A7" sqref="A1:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="6" width="16.7109375" customWidth="1"/>
+    <col width="16.7109375" customWidth="1" min="1" max="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
+    <row r="1"/>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Número do Brinco</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Peso</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Data de Entrada</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Número do Piquet</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Preço Ração (Kg)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Preço Silo (Kg)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Ração</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Silo</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>345</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2">
-        <v>34.56</v>
-      </c>
-      <c r="F2">
-        <v>15.67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>245.67</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3">
-        <v>35.67</v>
-      </c>
-      <c r="F3">
-        <v>24.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>245.56</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4">
-        <v>4.5</v>
-      </c>
-      <c r="F4">
-        <v>56.78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>125</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="F5">
-        <v>3.4</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>234.54</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>12.34</v>
+      </c>
+      <c r="F3" t="n">
+        <v>11.57</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4.221719999999999</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4.6908</v>
       </c>
     </row>
   </sheetData>

--- a/Automação - Projeto Propriedade Rural/Propriedade Rural/dados_animais.xlsx
+++ b/Automação - Projeto Propriedade Rural/Propriedade Rural/dados_animais.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A2:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A1:H7"/>
@@ -423,7 +423,6 @@
     <col width="16.7109375" customWidth="1" min="1" max="6"/>
   </cols>
   <sheetData>
-    <row r="1"/>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
@@ -496,6 +495,62 @@
       </c>
       <c r="H3" t="n">
         <v>4.6908</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>12</v>
+      </c>
+      <c r="B4" t="n">
+        <v>145</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>03/07/2024</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>12</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>125</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>02/07/2024</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>12</v>
+      </c>
+      <c r="E5" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>

--- a/Automação - Projeto Propriedade Rural/Propriedade Rural/dados_animais.xlsx
+++ b/Automação - Projeto Propriedade Rural/Propriedade Rural/dados_animais.xlsx
@@ -412,145 +412,230 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:H5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A1:H7"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="16.7109375" customWidth="1" min="1" max="6"/>
+    <col width="20.140625" customWidth="1" min="1" max="1"/>
+    <col width="15.85546875" customWidth="1" min="2" max="3"/>
+    <col width="20.140625" customWidth="1" min="4" max="4"/>
+    <col width="15.85546875" customWidth="1" min="5" max="6"/>
+    <col width="13.7109375" customWidth="1" min="7" max="7"/>
+    <col width="15.85546875" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Número do Brinco</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Peso</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Data de Entrada</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Número do Piquet</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Preço Ração (Kg)</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Preço Silo (Kg)</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Ração</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Silo</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Número do Brinco</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Peso</t>
-        </is>
+      <c r="A2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B2" t="n">
+        <v>214</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Data de Entrada</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Número do Piquet</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Preço Ração (Kg)</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Preço Silo (Kg)</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Ração</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Silo</t>
-        </is>
+          <t>13/07/2024</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>120</v>
+      </c>
+      <c r="E2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>12</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4.28</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>234.54</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>01/07/2024</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+          <t>02/07/2024</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>12.34</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>11.57</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>4.221719999999999</v>
+        <v>0.018</v>
       </c>
       <c r="H3" t="n">
-        <v>4.6908</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>120</v>
+      </c>
+      <c r="B4" t="n">
+        <v>437</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>13/07/2024</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>12</v>
-      </c>
-      <c r="B4" t="n">
-        <v>145</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>03/07/2024</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
       </c>
       <c r="E4" t="n">
         <v>12.5</v>
       </c>
       <c r="F4" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="G4" t="n">
-        <v>2.61</v>
+        <v>7.866</v>
       </c>
       <c r="H4" t="n">
-        <v>2.9</v>
+        <v>8.74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="B5" t="n">
-        <v>125</v>
+        <v>567</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>02/07/2024</t>
+          <t>13/07/2024</t>
         </is>
       </c>
       <c r="D5" t="n">
         <v>12</v>
       </c>
       <c r="E5" t="n">
-        <v>12.45</v>
+        <v>12.5</v>
       </c>
       <c r="F5" t="n">
-        <v>4.5</v>
+        <v>9.5</v>
       </c>
       <c r="G5" t="n">
-        <v>2.25</v>
+        <v>10.206</v>
       </c>
       <c r="H5" t="n">
-        <v>2.5</v>
+        <v>11.34</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>14</v>
+      </c>
+      <c r="B6" t="n">
+        <v>369</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>13/07/2024</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>12</v>
+      </c>
+      <c r="E6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>9.59</v>
+      </c>
+      <c r="G6" t="n">
+        <v>6.641999999999999</v>
+      </c>
+      <c r="H6" t="n">
+        <v>7.38</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>34</v>
+      </c>
+      <c r="B7" t="n">
+        <v>380</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>13/07/2024</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>12</v>
+      </c>
+      <c r="E7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="H7" t="n">
+        <v>7.600000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Automação - Projeto Propriedade Rural/Propriedade Rural/dados_animais.xlsx
+++ b/Automação - Projeto Propriedade Rural/Propriedade Rural/dados_animais.xlsx
@@ -1,33 +1,79 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\OneDrive\Documentos\Projetos Python\Planilha Funcionário\Automacao_Planilhas_Python\Automação - Projeto Propriedade Rural\Propriedade Rural\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B01D1C-C06E-482C-B36D-FF701B971996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Número do Brinco</t>
+  </si>
+  <si>
+    <t>Peso</t>
+  </si>
+  <si>
+    <t>Data de Entrada</t>
+  </si>
+  <si>
+    <t>Número do Piquet</t>
+  </si>
+  <si>
+    <t>Preço Ração (Kg)</t>
+  </si>
+  <si>
+    <t>Preço Silo (Kg)</t>
+  </si>
+  <si>
+    <t>Ração</t>
+  </si>
+  <si>
+    <t>Silo</t>
+  </si>
+  <si>
+    <t>Nome do Medicamento</t>
+  </si>
+  <si>
+    <t>Valor do Medicamento</t>
+  </si>
+  <si>
+    <t>15/08/2024</t>
+  </si>
+  <si>
+    <t>NENHUM MEDICAMENTO</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,80 +92,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -407,235 +394,77 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="20.140625" customWidth="1" min="1" max="1"/>
-    <col width="15.85546875" customWidth="1" min="2" max="3"/>
-    <col width="20.140625" customWidth="1" min="4" max="4"/>
-    <col width="15.85546875" customWidth="1" min="5" max="6"/>
-    <col width="13.7109375" customWidth="1" min="7" max="7"/>
-    <col width="15.85546875" customWidth="1" min="8" max="8"/>
+    <col min="9" max="9" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Número do Brinco</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Peso</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Data de Entrada</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Número do Piquet</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Preço Ração (Kg)</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Preço Silo (Kg)</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Ração</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Silo</t>
-        </is>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B2" t="n">
-        <v>214</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>13/07/2024</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>120</v>
-      </c>
-      <c r="E2" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>12</v>
-      </c>
-      <c r="G2" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="H2" t="n">
-        <v>4.28</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>02/07/2024</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.018</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>120</v>
-      </c>
-      <c r="B4" t="n">
-        <v>437</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>13/07/2024</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>12</v>
-      </c>
-      <c r="E4" t="n">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>235</v>
+      </c>
+      <c r="B2">
+        <v>76</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>568</v>
+      </c>
+      <c r="E2">
         <v>12.5</v>
       </c>
-      <c r="F4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="G4" t="n">
-        <v>7.866</v>
-      </c>
-      <c r="H4" t="n">
-        <v>8.74</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>45</v>
-      </c>
-      <c r="B5" t="n">
-        <v>567</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>13/07/2024</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>12</v>
-      </c>
-      <c r="E5" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="G5" t="n">
-        <v>10.206</v>
-      </c>
-      <c r="H5" t="n">
-        <v>11.34</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>14</v>
-      </c>
-      <c r="B6" t="n">
-        <v>369</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>13/07/2024</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>12</v>
-      </c>
-      <c r="E6" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F6" t="n">
-        <v>9.59</v>
-      </c>
-      <c r="G6" t="n">
-        <v>6.641999999999999</v>
-      </c>
-      <c r="H6" t="n">
-        <v>7.38</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>34</v>
-      </c>
-      <c r="B7" t="n">
-        <v>380</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>13/07/2024</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>12</v>
-      </c>
-      <c r="E7" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="G7" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="H7" t="n">
-        <v>7.600000000000001</v>
+      <c r="F2">
+        <v>23</v>
+      </c>
+      <c r="G2">
+        <v>1.3680000000000001</v>
+      </c>
+      <c r="H2">
+        <v>1.52</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Automação - Projeto Propriedade Rural/Propriedade Rural/dados_animais.xlsx
+++ b/Automação - Projeto Propriedade Rural/Propriedade Rural/dados_animais.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\OneDrive\Documentos\Projetos Python\Planilha Funcionário\Automacao_Planilhas_Python\Automação - Projeto Propriedade Rural\Propriedade Rural\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B01D1C-C06E-482C-B36D-FF701B971996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070A77D6-A366-44EC-BB2B-F868D74BA57C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Número do Brinco</t>
   </si>
@@ -52,10 +52,16 @@
     <t>Valor do Medicamento</t>
   </si>
   <si>
-    <t>15/08/2024</t>
-  </si>
-  <si>
-    <t>NENHUM MEDICAMENTO</t>
+    <t>Gasto C/Ração 15 dias</t>
+  </si>
+  <si>
+    <t>Gasto C/Ração 30 dias</t>
+  </si>
+  <si>
+    <t>08/08/2024</t>
+  </si>
+  <si>
+    <t>teste</t>
   </si>
 </sst>
 </file>
@@ -395,18 +401,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="27.5703125" customWidth="1"/>
+    <col min="1" max="13" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -437,34 +441,43 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>235</v>
+        <v>456</v>
       </c>
       <c r="B2">
-        <v>76</v>
+        <v>134.88999999999999</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2">
-        <v>568</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>12.5</v>
       </c>
       <c r="F2">
-        <v>23</v>
+        <v>13.89</v>
       </c>
       <c r="G2">
-        <v>1.3680000000000001</v>
+        <v>2.4280200000000001</v>
       </c>
       <c r="H2">
-        <v>1.52</v>
+        <v>2.6978</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="J2">
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/Automação - Projeto Propriedade Rural/Propriedade Rural/dados_animais.xlsx
+++ b/Automação - Projeto Propriedade Rural/Propriedade Rural/dados_animais.xlsx
@@ -1,85 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\OneDrive\Documentos\Projetos Python\Planilha Funcionário\Automacao_Planilhas_Python\Automação - Projeto Propriedade Rural\Propriedade Rural\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070A77D6-A366-44EC-BB2B-F868D74BA57C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>Número do Brinco</t>
-  </si>
-  <si>
-    <t>Peso</t>
-  </si>
-  <si>
-    <t>Data de Entrada</t>
-  </si>
-  <si>
-    <t>Número do Piquet</t>
-  </si>
-  <si>
-    <t>Preço Ração (Kg)</t>
-  </si>
-  <si>
-    <t>Preço Silo (Kg)</t>
-  </si>
-  <si>
-    <t>Ração</t>
-  </si>
-  <si>
-    <t>Silo</t>
-  </si>
-  <si>
-    <t>Nome do Medicamento</t>
-  </si>
-  <si>
-    <t>Valor do Medicamento</t>
-  </si>
-  <si>
-    <t>Gasto C/Ração 15 dias</t>
-  </si>
-  <si>
-    <t>Gasto C/Ração 30 dias</t>
-  </si>
-  <si>
-    <t>08/08/2024</t>
-  </si>
-  <si>
-    <t>teste</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -98,21 +47,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -400,85 +408,209 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="13" width="15.140625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Número do Brinco</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Peso</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Data de Entrada</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Número do Piquet</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Preço Ração (Kg)</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Preço Silo (Kg)</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Ração</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Silo</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Nome do Medicamento</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Valor do Medicamento</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>876</v>
+      </c>
+      <c r="B2" t="n">
+        <v>234</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>24/08/2024</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>45</v>
+      </c>
+      <c r="E2" t="n">
+        <v>86</v>
+      </c>
+      <c r="F2" t="n">
+        <v>67</v>
+      </c>
+      <c r="G2" t="n">
+        <v>42.12</v>
+      </c>
+      <c r="H2" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>utfutbuh</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>56567</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>928</v>
+      </c>
+      <c r="B3" t="n">
+        <v>28</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>05/08/2024</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>40</v>
+      </c>
+      <c r="E3" t="n">
+        <v>12</v>
+      </c>
+      <c r="F3" t="n">
+        <v>12</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5.600000000000001</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>123</v>
+      </c>
+      <c r="B4" t="n">
+        <v>456</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>16/08/2024</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>12</v>
+      </c>
+      <c r="E4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="G4" t="n">
+        <v>82.08</v>
+      </c>
+      <c r="H4" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>NENHUM</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>125</v>
+      </c>
+      <c r="B5" t="n">
+        <v>346</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>21/08/2024</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>456</v>
-      </c>
-      <c r="B2">
-        <v>134.88999999999999</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E5" t="n">
+        <v>16</v>
+      </c>
+      <c r="F5" t="n">
         <v>12</v>
       </c>
-      <c r="D2">
-        <v>12</v>
-      </c>
-      <c r="E2">
-        <v>12.5</v>
-      </c>
-      <c r="F2">
-        <v>13.89</v>
-      </c>
-      <c r="G2">
-        <v>2.4280200000000001</v>
-      </c>
-      <c r="H2">
-        <v>2.6978</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2">
-        <v>134</v>
-      </c>
+      <c r="G5" t="n">
+        <v>62.28</v>
+      </c>
+      <c r="H5" t="n">
+        <v>69.2</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
